--- a/Tarefa 3/Teste de mesa.xlsx
+++ b/Tarefa 3/Teste de mesa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fatecspgov-my.sharepoint.com/personal/isaque_costa01_fatec_sp_gov_br/Documents/Documentos/Projetos de programação/PABLO-ISAQUE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fatecspgov-my.sharepoint.com/personal/isaque_costa01_fatec_sp_gov_br/Documents/Documentos/GitHub/Aula_LP1_POO_conceitos/Tarefa 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="606" documentId="8_{C5D3714C-414B-4808-80D7-3427B0AFD01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8CE579F-E8BF-4381-8F3C-F0E71240CB68}"/>
+  <xr:revisionPtr revIDLastSave="609" documentId="8_{C5D3714C-414B-4808-80D7-3427B0AFD01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4599062-6485-49A3-8616-C5B89408A686}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AA6CBD74-A5FD-404D-B751-927374632FA1}"/>
+    <workbookView minimized="1" xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{AA6CBD74-A5FD-404D-B751-927374632FA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -499,6 +499,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -820,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52940000-7FA7-455B-9342-3CAED9216F0B}">
   <dimension ref="A1:AE98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
